--- a/bank/Resource/e_banking.xlsx
+++ b/bank/Resource/e_banking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Practice\bank\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC4BB25-2D4A-4553-A44F-8661D840B369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ED62937-6E1F-4C66-B47E-6A61F2A786E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2009C9F4-012E-43B6-8B2C-64334050D932}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{2009C9F4-012E-43B6-8B2C-64334050D932}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -41,34 +41,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>expected result</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Sr.no</t>
-  </si>
-  <si>
     <t>mngr422966</t>
   </si>
   <si>
     <t>vyvAbag</t>
   </si>
   <si>
-    <t>Logged In</t>
-  </si>
-  <si>
-    <t>Wrong Credential</t>
-  </si>
-  <si>
     <t>sdlhsf</t>
   </si>
   <si>
     <t>jsbfjsb</t>
-  </si>
-  <si>
-    <t>condition</t>
   </si>
 </sst>
 </file>
@@ -420,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3D8632-2AD6-4391-92DA-73CBB9FA3A78}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+      <selection activeCell="D1" sqref="D1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,92 +415,44 @@
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
